--- a/simple_IRR_estimation.xlsx
+++ b/simple_IRR_estimation.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roy/workspace/policy_value/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4785C2-B956-4444-8257-7CB057507D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181F09FD-C362-D845-B3A1-BE677EF4F932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="24040" windowWidth="24680" windowHeight="12440" xr2:uid="{81EE75DE-3884-5343-ADE1-AF0163543E6C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="adjusted" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>age now</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,11 +70,23 @@
     <t>fair is based on: -30% risk, 6.3 rate, 3-4% premium</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>fair pv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fair future value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -116,25 +129,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -445,11 +468,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C489A8-EE9A-2647-AA0F-5653ED90659C}">
+  <dimension ref="D2:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="7.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:14">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="4:14">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="4:14">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
+      <c r="G4">
+        <v>85</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>75</v>
+      </c>
+      <c r="L4">
+        <v>80</v>
+      </c>
+      <c r="M4">
+        <v>85</v>
+      </c>
+      <c r="N4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="4:14">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>K5+5</f>
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:H5" si="0">L5+5</f>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>27.7</v>
+      </c>
+      <c r="F6">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="G6">
+        <v>51.9</v>
+      </c>
+      <c r="H6">
+        <v>62.2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>27.7</v>
+      </c>
+      <c r="L6">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="M6">
+        <v>51.9</v>
+      </c>
+      <c r="N6">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
+        <f>K7</f>
+        <v>58.36944934978181</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:H7" si="1">L7</f>
+        <v>71.400366797969653</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>77.676009056650912</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>82.384099972754512</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2">
+        <f>K6*(1+6.3/100)^K8</f>
+        <v>58.36944934978181</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ref="L7:N7" si="2">L6*(1+6.3/100)^L8</f>
+        <v>71.400366797969653</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="2"/>
+        <v>77.676009056650912</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="2"/>
+        <v>82.384099972754512</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>12.2</v>
+      </c>
+      <c r="F8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G8">
+        <v>6.6</v>
+      </c>
+      <c r="H8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>12.2</v>
+      </c>
+      <c r="L8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M8">
+        <v>6.6</v>
+      </c>
+      <c r="N8">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14">
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <f>(E7/E5)^(1/E8)-1</f>
+        <v>0.18986853464037967</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9" si="3">(F7/F5)^(1/F8)-1</f>
+        <v>0.23820777406542115</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ref="G9" si="4">(G7/G5)^(1/G8)-1</f>
+        <v>0.31107582902790765</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" ref="H9" si="5">(H7/H5)^(1/H8)-1</f>
+        <v>0.34601134023037416</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <f>(K7/K5)^(1/K8)-1</f>
+        <v>0.31854428696770865</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" ref="L9:N9" si="6">(L7/L5)^(1/L8)-1</f>
+        <v>0.33510117493447877</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.41115685704302929</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.42798117552664228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19DE3D6-1E78-834F-BF36-345F3124D89D}">
   <dimension ref="D2:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="B1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/simple_IRR_estimation.xlsx
+++ b/simple_IRR_estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roy/workspace/policy_value/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181F09FD-C362-D845-B3A1-BE677EF4F932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E65E58E-4BE7-9643-9E14-B72DC2CEEB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="24040" windowWidth="24680" windowHeight="12440" xr2:uid="{81EE75DE-3884-5343-ADE1-AF0163543E6C}"/>
+    <workbookView xWindow="4520" yWindow="22260" windowWidth="28580" windowHeight="15320" xr2:uid="{81EE75DE-3884-5343-ADE1-AF0163543E6C}"/>
   </bookViews>
   <sheets>
     <sheet name="adjusted" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>age now</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -76,6 +76,33 @@
   </si>
   <si>
     <t>fair future value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discounted rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fair is based on: -30% risk, 2% premium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected age</t>
+  </si>
+  <si>
+    <t>expected age</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10% add on APEX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>based on average 25%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>based on equilibrium</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +112,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -112,12 +139,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,17 +173,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,244 +505,590 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C489A8-EE9A-2647-AA0F-5653ED90659C}">
-  <dimension ref="D2:N9"/>
+  <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11:M18"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:14">
-      <c r="D2" t="s">
+    <row r="1" spans="2:12">
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>85</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>75</v>
+      </c>
+      <c r="J4">
+        <v>80</v>
+      </c>
+      <c r="K4">
+        <v>85</v>
+      </c>
+      <c r="L4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <v>87.2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>89.2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>91.6</v>
+      </c>
+      <c r="F5" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <f>C5</f>
+        <v>87.2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:L5" si="0">D5</f>
+        <v>89.2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>91.6</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <f>I6+5</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="4:14">
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:F6" si="1">J6+5</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="4:14">
-      <c r="D4" t="s">
+      <c r="K6" s="4">
+        <v>8</v>
+      </c>
+      <c r="L6" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>36.6</v>
+      </c>
+      <c r="D7" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>60.3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <f>C7</f>
+        <v>36.6</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:N8" si="2">D7</f>
+        <v>48.5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>60.3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <f>C7*(1+$B$1/100)^C9</f>
+        <v>74.509670290566149</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:F8" si="3">D7*(1+$B$1/100)^D9</f>
+        <v>82.900223046295352</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="3"/>
+        <v>88.580070762721775</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="3"/>
+        <v>92.694339756612919</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="2">
+        <f>C8</f>
+        <v>74.509670290566149</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>82.900223046295352</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="2"/>
+        <v>88.580070762721775</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="2"/>
+        <v>92.694339756612919</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f>C5-C4</f>
+        <v>12.200000000000003</v>
+      </c>
+      <c r="D9">
+        <f>D5-D4</f>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="E9">
+        <f>E5-E4</f>
+        <v>6.5999999999999943</v>
+      </c>
+      <c r="F9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <f>C9</f>
+        <v>12.200000000000003</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:L9" si="4">D9</f>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>6.5999999999999943</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <f>(C8/C6)^(1/C9)-1</f>
+        <v>0.21391903489930275</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10" si="5">(D8/D6)^(1/D9)-1</f>
+        <v>0.25847041632752821</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ref="E10" si="6">(E8/E6)^(1/E9)-1</f>
+        <v>0.3374317124969235</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" ref="F10" si="7">(F8/F6)^(1/F9)-1</f>
+        <v>0.38096059727571041</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <f>(I8/I6)^(1/I9)-1</f>
+        <v>0.34519567642116833</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" ref="J10:L10" si="8">(J8/J6)^(1/J9)-1</f>
+        <v>0.35694942856205336</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="8"/>
+        <v>0.43952461797437459</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="8"/>
+        <v>0.46505878376643639</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="H13" t="s">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="I13">
         <v>75</v>
       </c>
-      <c r="F4">
+      <c r="J13">
         <v>80</v>
       </c>
-      <c r="G4">
+      <c r="K13">
         <v>85</v>
       </c>
-      <c r="H4">
+      <c r="L13">
         <v>90</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="14" spans="2:12">
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <f>I5</f>
+        <v>87.2</v>
+      </c>
+      <c r="J14">
+        <f>J5</f>
+        <v>89.2</v>
+      </c>
+      <c r="K14">
+        <f>K5</f>
+        <v>91.6</v>
+      </c>
+      <c r="L14">
+        <f>L5</f>
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>20</v>
+      </c>
+      <c r="J15" s="4">
+        <v>23</v>
+      </c>
+      <c r="K15" s="4">
+        <v>26</v>
+      </c>
+      <c r="L15" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <f>I7</f>
+        <v>36.6</v>
+      </c>
+      <c r="J16">
+        <f>J7</f>
+        <v>48.5</v>
+      </c>
+      <c r="K16">
+        <f>K7</f>
+        <v>60.3</v>
+      </c>
+      <c r="L16">
+        <f>L7</f>
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12">
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="2">
+        <f>I8</f>
+        <v>74.509670290566149</v>
+      </c>
+      <c r="J17" s="2">
+        <f>J8</f>
+        <v>82.900223046295352</v>
+      </c>
+      <c r="K17" s="2">
+        <f>K8</f>
+        <v>88.580070762721775</v>
+      </c>
+      <c r="L17" s="2">
+        <f>L8</f>
+        <v>92.694339756612919</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12">
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <f>I9</f>
+        <v>12.200000000000003</v>
+      </c>
+      <c r="J18">
+        <f>J9</f>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="K18">
+        <f>K9</f>
+        <v>6.5999999999999943</v>
+      </c>
+      <c r="L18">
+        <f>L9</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12">
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1">
+        <f>(I17/I15)^(1/I18)-1</f>
+        <v>0.11382830379330766</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" ref="J19:L19" si="9">(J17/J15)^(1/J18)-1</f>
+        <v>0.14954179966872005</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="9"/>
+        <v>0.20409571630949808</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="9"/>
+        <v>0.27792965410707637</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12">
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12">
+      <c r="H22" t="s">
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="I22">
         <v>75</v>
       </c>
-      <c r="L4">
+      <c r="J22">
         <v>80</v>
       </c>
-      <c r="M4">
+      <c r="K22">
         <v>85</v>
       </c>
-      <c r="N4">
+      <c r="L22">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="4:14">
-      <c r="D5" t="s">
+    <row r="23" spans="8:12">
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <f>I14</f>
+        <v>87.2</v>
+      </c>
+      <c r="J23">
+        <f>J14</f>
+        <v>89.2</v>
+      </c>
+      <c r="K23">
+        <f>K14</f>
+        <v>91.6</v>
+      </c>
+      <c r="L23">
+        <f>L14</f>
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12">
+      <c r="H24" t="s">
         <v>1</v>
       </c>
-      <c r="E5">
-        <f>K5+5</f>
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:H5" si="0">L5+5</f>
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5">
+      <c r="I24" s="4">
         <v>2</v>
       </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
+      <c r="J24" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="K24" s="4">
+        <v>20</v>
+      </c>
+      <c r="L24" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12">
+      <c r="H25" t="s">
         <v>8</v>
       </c>
-      <c r="N5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="4:14">
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>27.7</v>
-      </c>
-      <c r="F6">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="G6">
-        <v>51.9</v>
-      </c>
-      <c r="H6">
-        <v>62.2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>27.7</v>
-      </c>
-      <c r="L6">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="M6">
-        <v>51.9</v>
-      </c>
-      <c r="N6">
-        <v>62.2</v>
-      </c>
-    </row>
-    <row r="7" spans="4:14">
-      <c r="D7" t="s">
+      <c r="I25">
+        <f>I16</f>
+        <v>36.6</v>
+      </c>
+      <c r="J25">
+        <f>J16</f>
+        <v>48.5</v>
+      </c>
+      <c r="K25">
+        <f>K16</f>
+        <v>60.3</v>
+      </c>
+      <c r="L25">
+        <f>L16</f>
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="8:12">
+      <c r="H26" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3">
-        <f>K7</f>
-        <v>58.36944934978181</v>
-      </c>
-      <c r="F7" s="3">
-        <f t="shared" ref="F7:H7" si="1">L7</f>
-        <v>71.400366797969653</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="1"/>
-        <v>77.676009056650912</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="1"/>
-        <v>82.384099972754512</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2">
-        <f>K6*(1+6.3/100)^K8</f>
-        <v>58.36944934978181</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" ref="L7:N7" si="2">L6*(1+6.3/100)^L8</f>
-        <v>71.400366797969653</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="2"/>
-        <v>77.676009056650912</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="2"/>
-        <v>82.384099972754512</v>
-      </c>
-    </row>
-    <row r="8" spans="4:14">
-      <c r="D8" t="s">
+      <c r="I26" s="2">
+        <f>I17</f>
+        <v>74.509670290566149</v>
+      </c>
+      <c r="J26" s="2">
+        <f>J17</f>
+        <v>82.900223046295352</v>
+      </c>
+      <c r="K26" s="2">
+        <f>K17</f>
+        <v>88.580070762721775</v>
+      </c>
+      <c r="L26" s="2">
+        <f>L17</f>
+        <v>92.694339756612919</v>
+      </c>
+    </row>
+    <row r="27" spans="8:12">
+      <c r="H27" t="s">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>12.2</v>
-      </c>
-      <c r="F8">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G8">
-        <v>6.6</v>
-      </c>
-      <c r="H8">
+      <c r="I27">
+        <f>I18</f>
+        <v>12.200000000000003</v>
+      </c>
+      <c r="J27">
+        <f>J18</f>
+        <v>9.2000000000000028</v>
+      </c>
+      <c r="K27">
+        <f>K18</f>
+        <v>6.5999999999999943</v>
+      </c>
+      <c r="L27">
+        <f>L18</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="J8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>12.2</v>
-      </c>
-      <c r="L8">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="M8">
-        <v>6.6</v>
-      </c>
-      <c r="N8">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="4:14">
-      <c r="D9" t="s">
+    </row>
+    <row r="28" spans="8:12">
+      <c r="H28" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
-        <f>(E7/E5)^(1/E8)-1</f>
-        <v>0.18986853464037967</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" ref="F9" si="3">(F7/F5)^(1/F8)-1</f>
-        <v>0.23820777406542115</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" ref="G9" si="4">(G7/G5)^(1/G8)-1</f>
-        <v>0.31107582902790765</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" ref="H9" si="5">(H7/H5)^(1/H8)-1</f>
-        <v>0.34601134023037416</v>
-      </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="1">
-        <f>(K7/K5)^(1/K8)-1</f>
-        <v>0.31854428696770865</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" ref="L9:N9" si="6">(L7/L5)^(1/L8)-1</f>
-        <v>0.33510117493447877</v>
-      </c>
-      <c r="M9" s="1">
-        <f t="shared" si="6"/>
-        <v>0.41115685704302929</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="6"/>
-        <v>0.42798117552664228</v>
+      <c r="I28" s="1">
+        <f>(I26/I24)^(1/I27)-1</f>
+        <v>0.34519567642116833</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" ref="J28:L28" si="10">(J26/J24)^(1/J27)-1</f>
+        <v>0.2984442521643571</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="10"/>
+        <v>0.25292523282852963</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="10"/>
+        <v>0.20045629426262979</v>
       </c>
     </row>
   </sheetData>

--- a/simple_IRR_estimation.xlsx
+++ b/simple_IRR_estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roy/workspace/policy_value/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E65E58E-4BE7-9643-9E14-B72DC2CEEB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EAADA0-8EB0-3D49-95F3-B8599C0A009A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="22260" windowWidth="28580" windowHeight="15320" xr2:uid="{81EE75DE-3884-5343-ADE1-AF0163543E6C}"/>
+    <workbookView xWindow="11060" yWindow="22280" windowWidth="19960" windowHeight="15320" xr2:uid="{81EE75DE-3884-5343-ADE1-AF0163543E6C}"/>
   </bookViews>
   <sheets>
     <sheet name="adjusted" sheetId="2" r:id="rId1"/>
@@ -36,8 +36,57 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{93348D8D-40C8-1143-9F73-9F55E872CDFD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">just fair price
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">not bid
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
   <si>
     <t>age now</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,6 +152,50 @@
   </si>
   <si>
     <t>based on equilibrium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35bid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27bid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11bid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>based on harbour life</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3bid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2bid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46bid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20bid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1bid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21bid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9bid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +207,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,6 +230,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -173,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +295,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,11 +615,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C489A8-EE9A-2647-AA0F-5653ED90659C}">
-  <dimension ref="B1:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C489A8-EE9A-2647-AA0F-5653ED90659C}">
+  <dimension ref="B1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -521,9 +632,11 @@
     <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.5" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:21">
       <c r="B1">
         <v>6</v>
       </c>
@@ -531,20 +644,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:21">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:21">
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -575,8 +691,32 @@
       <c r="L4">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="2:12">
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>89</v>
+      </c>
+      <c r="P4" s="4">
+        <v>99</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>90</v>
+      </c>
+      <c r="R4" s="4">
+        <v>77</v>
+      </c>
+      <c r="S4" s="4">
+        <v>95</v>
+      </c>
+      <c r="T4" s="4">
+        <v>83</v>
+      </c>
+      <c r="U4" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -590,7 +730,7 @@
         <v>91.6</v>
       </c>
       <c r="F5" s="4">
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -609,10 +749,34 @@
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>94.6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
+        <v>94.5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="4">
+        <v>92.9</v>
+      </c>
+      <c r="P5" s="5">
+        <v>100.5</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>94.5</v>
+      </c>
+      <c r="R5" s="5">
+        <v>85.8</v>
+      </c>
+      <c r="S5" s="5">
+        <v>96.6</v>
+      </c>
+      <c r="T5" s="5">
+        <v>87.4</v>
+      </c>
+      <c r="U5" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
@@ -647,84 +811,166 @@
       <c r="L6" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="2:12">
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>58.789000000000001</v>
+      </c>
+      <c r="P6" s="5">
+        <v>48.25</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>31.2</v>
+      </c>
+      <c r="R6" s="5">
+        <f>51/250*100</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="S6" s="5">
+        <f>555/1000*100</f>
+        <v>55.500000000000007</v>
+      </c>
+      <c r="T6" s="5">
+        <f>150/402.378*100</f>
+        <v>37.278380030717386</v>
+      </c>
+      <c r="U6" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>36.6</v>
+        <v>34.5</v>
       </c>
       <c r="D7" s="4">
-        <v>48.5</v>
+        <v>45.7</v>
       </c>
       <c r="E7" s="4">
-        <v>60.3</v>
+        <v>56.9</v>
       </c>
       <c r="F7" s="4">
-        <v>70.900000000000006</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
       </c>
       <c r="I7">
         <f>C7</f>
-        <v>36.6</v>
+        <v>34.5</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:N8" si="2">D7</f>
-        <v>48.5</v>
+        <f t="shared" ref="J7:L8" si="2">D7</f>
+        <v>45.7</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>60.3</v>
+        <v>56.9</v>
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>70.900000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="4">
+        <v>70.3</v>
+      </c>
+      <c r="P7" s="4">
+        <v>86.7</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="R7" s="4">
+        <v>47.1</v>
+      </c>
+      <c r="S7" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="T7" s="4">
+        <v>67.3</v>
+      </c>
+      <c r="U7" s="4">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3">
         <f>C7*(1+$B$1/100)^C9</f>
-        <v>74.509670290566149</v>
+        <v>70.23452527389432</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:F8" si="3">D7*(1+$B$1/100)^D9</f>
-        <v>82.900223046295352</v>
+        <v>78.114230787952536</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="3"/>
-        <v>88.580070762721775</v>
+        <v>83.585506242103961</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="3"/>
-        <v>92.694339756612919</v>
+        <v>87.464757823940815</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="2">
         <f>C8</f>
-        <v>74.509670290566149</v>
+        <v>70.23452527389432</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="2"/>
-        <v>82.900223046295352</v>
+        <v>78.114230787952536</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="2"/>
-        <v>88.580070762721775</v>
+        <v>83.585506242103961</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="2"/>
-        <v>92.694339756612919</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
+        <v>87.464757823940815</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="3">
+        <f>O7*(1+$B$1/100)^O9</f>
+        <v>88.236485078570382</v>
+      </c>
+      <c r="P8" s="3">
+        <f>P7*(1+$B$1/100)^P9</f>
+        <v>94.618900121698744</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>Q7*(1+$B$1/100)^Q9</f>
+        <v>86.956592180823435</v>
+      </c>
+      <c r="R8" s="3">
+        <f>R7*(1+$B$1/100)^R9</f>
+        <v>78.652498200338513</v>
+      </c>
+      <c r="S8" s="3">
+        <f>S7*(1+$B$1/100)^S9</f>
+        <v>91.549385815314977</v>
+      </c>
+      <c r="T8" s="3">
+        <f>T7*(1+$B$1/100)^T9</f>
+        <v>86.968278080144231</v>
+      </c>
+      <c r="U8" s="3">
+        <f>U7*(1+$B$1/100)^U9</f>
+        <v>89.564403200000029</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -762,53 +1008,135 @@
         <f t="shared" si="4"/>
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="2:12">
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <f>O5-O4</f>
+        <v>3.9000000000000057</v>
+      </c>
+      <c r="P9">
+        <f>P5-P4</f>
+        <v>1.5</v>
+      </c>
+      <c r="Q9">
+        <f>Q5-Q4</f>
+        <v>4.5</v>
+      </c>
+      <c r="R9">
+        <f>R5-R4</f>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="S9">
+        <f>S5-S4</f>
+        <v>1.5999999999999943</v>
+      </c>
+      <c r="T9">
+        <f>T5-T4</f>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="U9">
+        <f>U5-U4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1">
         <f>(C8/C6)^(1/C9)-1</f>
-        <v>0.21391903489930275</v>
+        <v>0.20805381067133233</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ref="D10" si="5">(D8/D6)^(1/D9)-1</f>
-        <v>0.25847041632752821</v>
+        <v>0.25036234701288196</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ref="E10" si="6">(E8/E6)^(1/E9)-1</f>
-        <v>0.3374317124969235</v>
+        <v>0.32572263215378605</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ref="F10" si="7">(F8/F6)^(1/F9)-1</f>
-        <v>0.38096059727571041</v>
+        <v>0.36363661163541394</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="1">
         <f>(I8/I6)^(1/I9)-1</f>
-        <v>0.34519567642116833</v>
+        <v>0.33869617023840148</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" ref="J10:L10" si="8">(J8/J6)^(1/J9)-1</f>
-        <v>0.35694942856205336</v>
+        <v>0.3482068789712911</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="8"/>
-        <v>0.43952461797437459</v>
+        <v>0.42692172449556054</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="8"/>
-        <v>0.46505878376643639</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
+        <v>0.44667979642803624</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="1">
+        <f>(O8/O6)^(1/O9)-1</f>
+        <v>0.10973298267516918</v>
+      </c>
+      <c r="P10" s="1">
+        <f>(P8/P6)^(1/P9)-1</f>
+        <v>0.56670435915194117</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>(Q8/Q6)^(1/Q9)-1</f>
+        <v>0.25580370328604629</v>
+      </c>
+      <c r="R10" s="1">
+        <f>(R8/R6)^(1/R9)-1</f>
+        <v>0.16573615847639966</v>
+      </c>
+      <c r="S10" s="1">
+        <f>(S8/S6)^(1/S9)-1</f>
+        <v>0.36726133490760415</v>
+      </c>
+      <c r="T10" s="1">
+        <f>(T8/T6)^(1/T9)-1</f>
+        <v>0.21231229329262402</v>
+      </c>
+      <c r="U10" s="1">
+        <f>(U8/U6)^(1/U9)-1</f>
+        <v>0.33081375172196803</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="P11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
       <c r="H12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:21">
       <c r="H13" t="s">
         <v>0</v>
       </c>
@@ -824,8 +1152,26 @@
       <c r="L13">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="2:12">
+      <c r="P13" s="4">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>95</v>
+      </c>
+      <c r="R13" s="4">
+        <v>94</v>
+      </c>
+      <c r="S13" s="4">
+        <v>73</v>
+      </c>
+      <c r="T13" s="4">
+        <v>88</v>
+      </c>
+      <c r="U13" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
       <c r="H14" t="s">
         <v>12</v>
       </c>
@@ -843,10 +1189,28 @@
       </c>
       <c r="L14">
         <f>L5</f>
-        <v>94.6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
+        <v>94.5</v>
+      </c>
+      <c r="P14" s="4">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>97.4</v>
+      </c>
+      <c r="R14" s="4">
+        <v>96.3</v>
+      </c>
+      <c r="S14" s="4">
+        <v>82.6</v>
+      </c>
+      <c r="T14" s="4">
+        <v>91</v>
+      </c>
+      <c r="U14" s="5">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
       <c r="H15" t="s">
         <v>1</v>
       </c>
@@ -862,97 +1226,231 @@
       <c r="L15" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="2:12">
+      <c r="P15" s="5">
+        <f>70/500*100</f>
+        <v>14.000000000000002</v>
+      </c>
+      <c r="Q15" s="5">
+        <f>95/250*100</f>
+        <v>38</v>
+      </c>
+      <c r="R15" s="5">
+        <f>580/1000*100</f>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="S15" s="5">
+        <f>4.5/16*100</f>
+        <v>28.125</v>
+      </c>
+      <c r="T15" s="5">
+        <f>213/337*100</f>
+        <v>63.204747774480708</v>
+      </c>
+      <c r="U15" s="5">
+        <f>72/300*100</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
       <c r="H16" t="s">
         <v>8</v>
       </c>
       <c r="I16">
-        <f>I7</f>
-        <v>36.6</v>
+        <f t="shared" ref="I16:L18" si="9">I7</f>
+        <v>34.5</v>
       </c>
       <c r="J16">
-        <f>J7</f>
-        <v>48.5</v>
+        <f t="shared" si="9"/>
+        <v>45.7</v>
       </c>
       <c r="K16">
-        <f>K7</f>
-        <v>60.3</v>
+        <f t="shared" si="9"/>
+        <v>56.9</v>
       </c>
       <c r="L16">
-        <f>L7</f>
-        <v>70.900000000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="8:12">
+        <f t="shared" si="9"/>
+        <v>66.900000000000006</v>
+      </c>
+      <c r="P16" s="5">
+        <v>46.4</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="R16" s="5">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="S16" s="5">
+        <v>44.2</v>
+      </c>
+      <c r="T16" s="5">
+        <v>75.2</v>
+      </c>
+      <c r="U16" s="4">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="17" spans="8:21">
       <c r="H17" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="2">
-        <f>I8</f>
-        <v>74.509670290566149</v>
+        <f t="shared" si="9"/>
+        <v>70.23452527389432</v>
       </c>
       <c r="J17" s="2">
-        <f>J8</f>
-        <v>82.900223046295352</v>
+        <f t="shared" si="9"/>
+        <v>78.114230787952536</v>
       </c>
       <c r="K17" s="2">
-        <f>K8</f>
-        <v>88.580070762721775</v>
+        <f t="shared" si="9"/>
+        <v>83.585506242103961</v>
       </c>
       <c r="L17" s="2">
-        <f>L8</f>
-        <v>92.694339756612919</v>
-      </c>
-    </row>
-    <row r="18" spans="8:12">
+        <f t="shared" si="9"/>
+        <v>87.464757823940815</v>
+      </c>
+      <c r="P17" s="3">
+        <f>P16*(1+$B$1/100)^P18</f>
+        <v>78.391823697724945</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>Q16*(1+$B$1/100)^Q18</f>
+        <v>90.742570983145612</v>
+      </c>
+      <c r="R17" s="3">
+        <f>R16*(1+$B$1/100)^R18</f>
+        <v>91.015751189724867</v>
+      </c>
+      <c r="S17" s="3">
+        <f>S16*(1+$B$1/100)^S18</f>
+        <v>77.331881342145877</v>
+      </c>
+      <c r="T17" s="3">
+        <f>T16*(1+$B$1/100)^T18</f>
+        <v>89.564403200000029</v>
+      </c>
+      <c r="U17" s="3">
+        <f>U16*(1+$B$1/100)^U18</f>
+        <v>78.652498200338513</v>
+      </c>
+    </row>
+    <row r="18" spans="8:21">
       <c r="H18" t="s">
         <v>3</v>
       </c>
       <c r="I18">
-        <f>I9</f>
+        <f t="shared" si="9"/>
         <v>12.200000000000003</v>
       </c>
       <c r="J18">
-        <f>J9</f>
+        <f t="shared" si="9"/>
         <v>9.2000000000000028</v>
       </c>
       <c r="K18">
-        <f>K9</f>
+        <f t="shared" si="9"/>
         <v>6.5999999999999943</v>
       </c>
       <c r="L18">
-        <f>L9</f>
+        <f t="shared" si="9"/>
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="8:12">
+      <c r="P18">
+        <f>P14-P13</f>
+        <v>9</v>
+      </c>
+      <c r="Q18">
+        <f>Q14-Q13</f>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="R18">
+        <f>R14-R13</f>
+        <v>2.2999999999999972</v>
+      </c>
+      <c r="S18">
+        <f>S14-S13</f>
+        <v>9.5999999999999943</v>
+      </c>
+      <c r="T18">
+        <f>T14-T13</f>
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <f>U14-U13</f>
+        <v>8.7999999999999972</v>
+      </c>
+    </row>
+    <row r="19" spans="8:21">
       <c r="H19" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="1">
         <f>(I17/I15)^(1/I18)-1</f>
-        <v>0.11382830379330766</v>
+        <v>0.10844668231329724</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" ref="J19:L19" si="9">(J17/J15)^(1/J18)-1</f>
-        <v>0.14954179966872005</v>
+        <f t="shared" ref="J19:L19" si="10">(J17/J15)^(1/J18)-1</f>
+        <v>0.14213553530932699</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="9"/>
-        <v>0.20409571630949808</v>
+        <f t="shared" si="10"/>
+        <v>0.19355397922389095</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="9"/>
-        <v>0.27792965410707637</v>
-      </c>
-    </row>
-    <row r="21" spans="8:12">
+        <f t="shared" si="10"/>
+        <v>0.26189817933456339</v>
+      </c>
+      <c r="P19" s="1">
+        <f>(P17/P15)^(1/P18)-1</f>
+        <v>0.21095211553011994</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>(Q17/Q15)^(1/Q18)-1</f>
+        <v>0.4371809480076243</v>
+      </c>
+      <c r="R19" s="1">
+        <f>(R17/R15)^(1/R18)-1</f>
+        <v>0.21641560931547543</v>
+      </c>
+      <c r="S19" s="1">
+        <f>(S17/S15)^(1/S18)-1</f>
+        <v>0.11110954817634267</v>
+      </c>
+      <c r="T19" s="1">
+        <f>(T17/T15)^(1/T18)-1</f>
+        <v>0.12321245677428316</v>
+      </c>
+      <c r="U19" s="1">
+        <f>(U17/U15)^(1/U18)-1</f>
+        <v>0.14440485315837837</v>
+      </c>
+    </row>
+    <row r="20" spans="8:21">
+      <c r="P20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="8:21">
       <c r="H21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="8:12">
+    <row r="22" spans="8:21">
       <c r="H22" t="s">
         <v>0</v>
       </c>
@@ -969,7 +1467,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="8:12">
+    <row r="23" spans="8:21">
       <c r="H23" t="s">
         <v>12</v>
       </c>
@@ -987,10 +1485,10 @@
       </c>
       <c r="L23">
         <f>L14</f>
-        <v>94.6</v>
-      </c>
-    </row>
-    <row r="24" spans="8:12">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="24" spans="8:21">
       <c r="H24" t="s">
         <v>1</v>
       </c>
@@ -1007,93 +1505,94 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="8:12">
+    <row r="25" spans="8:21">
       <c r="H25" t="s">
         <v>8</v>
       </c>
       <c r="I25">
-        <f>I16</f>
-        <v>36.6</v>
+        <f t="shared" ref="I25:L27" si="11">I16</f>
+        <v>34.5</v>
       </c>
       <c r="J25">
-        <f>J16</f>
-        <v>48.5</v>
+        <f t="shared" si="11"/>
+        <v>45.7</v>
       </c>
       <c r="K25">
-        <f>K16</f>
-        <v>60.3</v>
+        <f t="shared" si="11"/>
+        <v>56.9</v>
       </c>
       <c r="L25">
-        <f>L16</f>
-        <v>70.900000000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="8:12">
+        <f t="shared" si="11"/>
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="8:21">
       <c r="H26" t="s">
         <v>9</v>
       </c>
       <c r="I26" s="2">
-        <f>I17</f>
-        <v>74.509670290566149</v>
+        <f t="shared" si="11"/>
+        <v>70.23452527389432</v>
       </c>
       <c r="J26" s="2">
-        <f>J17</f>
-        <v>82.900223046295352</v>
+        <f t="shared" si="11"/>
+        <v>78.114230787952536</v>
       </c>
       <c r="K26" s="2">
-        <f>K17</f>
-        <v>88.580070762721775</v>
+        <f t="shared" si="11"/>
+        <v>83.585506242103961</v>
       </c>
       <c r="L26" s="2">
-        <f>L17</f>
-        <v>92.694339756612919</v>
-      </c>
-    </row>
-    <row r="27" spans="8:12">
+        <f t="shared" si="11"/>
+        <v>87.464757823940815</v>
+      </c>
+    </row>
+    <row r="27" spans="8:21">
       <c r="H27" t="s">
         <v>3</v>
       </c>
       <c r="I27">
-        <f>I18</f>
+        <f t="shared" si="11"/>
         <v>12.200000000000003</v>
       </c>
       <c r="J27">
-        <f>J18</f>
+        <f t="shared" si="11"/>
         <v>9.2000000000000028</v>
       </c>
       <c r="K27">
-        <f>K18</f>
+        <f t="shared" si="11"/>
         <v>6.5999999999999943</v>
       </c>
       <c r="L27">
-        <f>L18</f>
+        <f t="shared" si="11"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="8:12">
+    <row r="28" spans="8:21">
       <c r="H28" t="s">
         <v>4</v>
       </c>
       <c r="I28" s="1">
         <f>(I26/I24)^(1/I27)-1</f>
-        <v>0.34519567642116833</v>
+        <v>0.33869617023840148</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" ref="J28:L28" si="10">(J26/J24)^(1/J27)-1</f>
-        <v>0.2984442521643571</v>
+        <f t="shared" ref="J28:L28" si="12">(J26/J24)^(1/J27)-1</f>
+        <v>0.29007863954354152</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="10"/>
-        <v>0.25292523282852963</v>
+        <f t="shared" si="12"/>
+        <v>0.24195599822907154</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="10"/>
-        <v>0.20045629426262979</v>
+        <f t="shared" si="12"/>
+        <v>0.18539671352974296</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
